--- a/BEC/01-听力相关/听力/【BEC中级真题精讲补充资料】常用短语，常见公司部门和职位.xlsx
+++ b/BEC/01-听力相关/听力/【BEC中级真题精讲补充资料】常用短语，常见公司部门和职位.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView windowWidth="22188" windowHeight="9047"/>
   </bookViews>
   <sheets>
     <sheet name="常用短语" sheetId="1" r:id="rId1"/>
     <sheet name="常见公司部门和职位" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -19,1308 +19,985 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="321">
   <si>
     <t>a shortage of cash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金短缺</t>
   </si>
   <si>
     <t>advertising campaign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告宣传活动</t>
   </si>
   <si>
     <t>advertising executive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告主管人员</t>
   </si>
   <si>
     <t>annual leave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年假</t>
+  </si>
+  <si>
+    <t>annual reort</t>
+  </si>
+  <si>
+    <t>年度报告</t>
   </si>
   <si>
     <t>answering machine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录音电话</t>
   </si>
   <si>
     <t>article</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品</t>
   </si>
   <si>
     <t>a.s.a.p(as soon as possible)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽快</t>
   </si>
   <si>
     <t>assets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产</t>
   </si>
   <si>
     <t>attach improtance to team building</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重视团队建设</t>
   </si>
   <si>
     <t>balance sheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产负债表、平衡表</t>
   </si>
   <si>
     <t>base pay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本工资</t>
   </si>
   <si>
     <t>behind schedule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度落后与计划</t>
   </si>
   <si>
     <t>benefit premium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利津贴</t>
   </si>
   <si>
     <t>benefit system</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利制度</t>
   </si>
   <si>
     <t>benefits package</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一揽子福利计划（工资之外的福利，如健康保险，住房或股票等）</t>
   </si>
   <si>
     <t>bonus points</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(消费）积分</t>
   </si>
   <si>
     <t>brand leader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现金短缺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告宣传活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告主管人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年假</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年度报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录音电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尽快</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重视团队建设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资产负债表、平衡表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本工资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度落后与计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利津贴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利制度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一揽子福利计划（工资之外的福利，如健康保险，住房或股票等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>annual reort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(消费）积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>畅销品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>brand loyalty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾客对品牌的忠诚</t>
   </si>
   <si>
     <t>business objectives</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商务目标</t>
   </si>
   <si>
     <t>busines trip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商务旅行</t>
   </si>
   <si>
     <t>cancel an order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消订单</t>
   </si>
   <si>
     <t>capital investment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资本投资</t>
   </si>
   <si>
     <t>cash flow gap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金流量差额</t>
+  </si>
+  <si>
+    <t>现金流</t>
   </si>
   <si>
     <t>cash on delivery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货到付款</t>
   </si>
   <si>
     <t>cash surplus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金盈余</t>
   </si>
   <si>
     <t>catalogue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品目录单</t>
   </si>
   <si>
     <t>chief accountant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首席会计</t>
   </si>
   <si>
     <t>company culture/enterprises culture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司文化</t>
   </si>
   <si>
     <t>company image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司形象</t>
   </si>
   <si>
     <t>company performance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司绩效</t>
   </si>
   <si>
     <t>company values</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司价值观</t>
   </si>
   <si>
     <t>concession</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠，减价</t>
   </si>
   <si>
     <t>confirm an order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认订单</t>
   </si>
   <si>
     <t>consistent quality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定的质量</t>
   </si>
   <si>
     <t>corporate business area(business district,commercial district,commercial area)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商务区、商务地段</t>
   </si>
   <si>
     <t>corporate hospitality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商务接待</t>
   </si>
   <si>
     <t>cost-cutting measures</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低成本的措施</t>
   </si>
   <si>
     <t>customer-focused</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以顾客为中心的</t>
   </si>
   <si>
     <t>deadline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终期限</t>
   </si>
   <si>
     <t>dealership</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品经销特许权</t>
   </si>
   <si>
     <t>delivery costs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交货费用，运费</t>
   </si>
   <si>
     <t>delivery time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顾客对品牌的忠诚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商务目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商务旅行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资本投资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现金流量差额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现金流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货到付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现金盈余</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品目录单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首席会计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司形象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司绩效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司价值观</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠，减价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳定的质量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商务区、商务地段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商务接待</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低成本的措施</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以顾客为中心的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终期限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品经销特许权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交货费用，运费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>交货时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>department training budget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门培训预算</t>
   </si>
   <si>
     <t xml:space="preserve">develop team work </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开拓团队协作</t>
   </si>
   <si>
     <t>distribution network</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流网络，配送网络</t>
   </si>
   <si>
     <t>effective management style</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效的管理方式</t>
   </si>
   <si>
     <t>emphasize team spirit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强调团队精神</t>
   </si>
   <si>
     <t>expenses claim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销申报</t>
   </si>
   <si>
     <t>expenses claims sheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销单</t>
   </si>
   <si>
     <t>final payment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后付款</t>
   </si>
   <si>
     <t>financing costs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筹措成本，融资成本</t>
   </si>
   <si>
     <t>follow-up evaluation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续评估</t>
   </si>
   <si>
     <t>food and accommodation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食宿</t>
+  </si>
+  <si>
+    <t>franchise</t>
+  </si>
+  <si>
+    <t>特许经营</t>
+  </si>
+  <si>
+    <t>free delivery area</t>
+  </si>
+  <si>
+    <t>免费送货区</t>
   </si>
   <si>
     <t>go for profit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追求利润</t>
   </si>
   <si>
     <t>half-year sales report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半年度销售报告</t>
   </si>
   <si>
     <t>Head Office</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总部</t>
   </si>
   <si>
     <t>hotel bills</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅馆住宿费</t>
+  </si>
+  <si>
+    <t>industrial estate(trading
+estate,industrial park</t>
+  </si>
+  <si>
+    <t>工业园区</t>
   </si>
   <si>
     <t>information packs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料袋</t>
   </si>
   <si>
     <t>inventory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存，存货</t>
   </si>
   <si>
     <t>leasehold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁</t>
   </si>
   <si>
     <t>line manager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直属经理，业务经理</t>
   </si>
   <si>
     <t>local adaptation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品的本土化</t>
   </si>
   <si>
     <t>logistics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流</t>
   </si>
   <si>
     <t>loyalty scheme</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠实（顾客）奖励计划</t>
   </si>
   <si>
     <t>mail order company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门培训预算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开拓团队协作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流网络，配送网络</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效的管理方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强调团队精神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报销申报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报销单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筹措成本，融资成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后续评估</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食宿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特许经营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费送货区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>追求利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半年度销售报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旅馆住宿费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业园区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资料袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存，存货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租赁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直属经理，业务经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品的本土化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">franchise </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>free delivery area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忠实（顾客）奖励计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>邮购公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>major brands</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主导品牌</t>
   </si>
   <si>
     <t>make delivery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货</t>
   </si>
   <si>
     <t>management consultant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理顾问</t>
   </si>
   <si>
     <t>managerial skills</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理技能</t>
   </si>
   <si>
     <t>margin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润，毛利</t>
   </si>
   <si>
     <t>Marketing and Sales Dircetors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销和销售主管</t>
   </si>
   <si>
     <t>marketing industry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销行业</t>
   </si>
   <si>
     <t>marketing mix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销组合</t>
   </si>
   <si>
     <t>marketing strategy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销策略</t>
   </si>
   <si>
     <t>operational margins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营利润</t>
   </si>
   <si>
     <t>overhead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业一般管理费用，日常开支</t>
   </si>
   <si>
     <t>PA(personal assistant)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>助理</t>
   </si>
   <si>
     <t>pension scheme</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养老金计划</t>
   </si>
   <si>
     <t>performance evaluation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效评估</t>
   </si>
   <si>
     <t>place an order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发出订单</t>
   </si>
   <si>
     <t>point-of-sale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售网点</t>
   </si>
   <si>
     <t>potential profits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜在利润</t>
   </si>
   <si>
     <t>premises</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（企业、机构等使用的）经营场地、生产场地、办公场所</t>
   </si>
   <si>
     <t>pre-tax profits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税前利润</t>
   </si>
   <si>
     <t>price-cutting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降价，价格战</t>
   </si>
   <si>
     <t>pro-business environment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对商务有利的环境</t>
   </si>
   <si>
     <t>product life cycle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品寿命周期</t>
   </si>
   <si>
     <t>production facilities</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产设备</t>
   </si>
   <si>
     <t>profile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介，概况</t>
   </si>
   <si>
     <t>public transportation fares</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主导品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理顾问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利润，毛利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营销和销售主管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营销行业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营销组合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营销策略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经营利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业一般管理费用，日常开支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>助理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>养老金计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绩效评估</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发出订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售网点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潜在利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（企业、机构等使用的）经营场地、生产场地、办公场所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>税前利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降价，价格战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对商务有利的环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品寿命周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简介，概况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公交车费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>retail food market</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>running costs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sales department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sales staff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sales volume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set objectives</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settle the balance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set-up costs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>small profit and quick returns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>staff complaints</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>staff turnover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stick to the schedule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supplier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>take delivery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target customer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target market</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team building</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time schedule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade fair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trading volume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>traveling expenses</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>turnover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vendor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voice mail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>work extra time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R &amp; D project
 (R&amp;D=Research and Develop)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>研发项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retail food market</t>
   </si>
   <si>
     <t>食品零售市场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>running costs</t>
   </si>
   <si>
     <t>管理费用，经营成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales department</t>
   </si>
   <si>
     <t>销售部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales staff</t>
   </si>
   <si>
     <t>销售人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales volume</t>
   </si>
   <si>
     <t>销售额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set objectives</t>
   </si>
   <si>
     <t>确立目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settle the balance</t>
   </si>
   <si>
     <t>结清余额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set-up costs</t>
   </si>
   <si>
     <t>创办成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>small profit and quick returns</t>
   </si>
   <si>
     <t>薄利多销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staff complaints</t>
   </si>
   <si>
     <t>员工投诉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staff turnover</t>
   </si>
   <si>
     <t>人员流动率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stick to the schedule</t>
   </si>
   <si>
     <t>严格按计划进行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplier</t>
   </si>
   <si>
     <t>供货商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take delivery</t>
   </si>
   <si>
     <t>取货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target customer</t>
   </si>
   <si>
     <t>销售对象，目标客户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target market</t>
   </si>
   <si>
     <t>目标市场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team building</t>
   </si>
   <si>
     <t>团队建设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time schedule</t>
   </si>
   <si>
     <t>时间安排表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade fair</t>
   </si>
   <si>
     <t>贸易洽谈会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trading volume</t>
   </si>
   <si>
     <t>贸易额，交易额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traveling expenses</t>
   </si>
   <si>
     <t>旅行费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turnover</t>
   </si>
   <si>
     <t>营业额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vendor</t>
   </si>
   <si>
     <t>销售商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voice mail</t>
   </si>
   <si>
     <t>语音信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work extra time</t>
   </si>
   <si>
     <t>加班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Departments of a company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>accounting department/accounts department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计处</t>
   </si>
   <si>
     <t>customer service/service team</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户服务部</t>
   </si>
   <si>
     <t>EDP team (EDP=electronic data processing)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子数据处理小组</t>
   </si>
   <si>
     <t>engineering department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程部</t>
   </si>
   <si>
     <t>export department/export team/export sales department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外销部，出口部</t>
   </si>
   <si>
     <t>import department/import team</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进口部</t>
   </si>
   <si>
     <t>IT department(IT=information technology)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息技术部</t>
   </si>
   <si>
     <t>logistics department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后勤部，物流部</t>
   </si>
   <si>
     <t>manufacturing department/production department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产科</t>
   </si>
   <si>
     <t>marketing department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场营销部</t>
   </si>
   <si>
     <t>materials administration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资管理部</t>
   </si>
   <si>
     <t>personnel department/staff department/human resources</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事部，人力资源部</t>
   </si>
   <si>
     <t>public relations team/public relations department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公关部</t>
   </si>
   <si>
     <t>purchasing department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购部，（物资）供应科</t>
   </si>
   <si>
     <t>research and development team</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发部门</t>
+  </si>
+  <si>
+    <t>销售部</t>
   </si>
   <si>
     <t>secretary's office</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘书处</t>
   </si>
   <si>
     <t>shipping department/dispatch department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输部，送货部</t>
   </si>
   <si>
     <t>technical support team</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术支援小组</t>
   </si>
   <si>
     <t>warehousing department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会计处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户服务部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子数据处理小组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外销部，出口部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进口部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息技术部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后勤部，物流部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场营销部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物资管理部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人事部，人力资源部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公关部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购部，（物资）供应科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研发部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秘书处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运输部，送货部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术支援小组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>仓储部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Jobs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>analyst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析师</t>
   </si>
   <si>
     <t>assistant（e.g.purchasing assistant)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>buyer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采买员</t>
   </si>
   <si>
     <t>CEO（Chief Executive Officer)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首席执行官</t>
   </si>
   <si>
     <t>co-director</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副总监</t>
   </si>
   <si>
     <t>commercial agent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商务代表</t>
   </si>
   <si>
     <t>dircetor general</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主任，总干事</t>
   </si>
   <si>
     <t>director of boards</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董事长</t>
   </si>
   <si>
     <t>economist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济师</t>
   </si>
   <si>
     <t>export sales manager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外销部经理</t>
   </si>
   <si>
     <t>management board</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理委员会</t>
   </si>
   <si>
     <t>managing director</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经理</t>
   </si>
   <si>
     <t>purchasing manager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购部经理</t>
   </si>
   <si>
     <t>sales manager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售部经理</t>
   </si>
   <si>
     <t>sales representative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售代表</t>
   </si>
   <si>
     <t>senior executive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级行政官</t>
   </si>
   <si>
     <t>service engineer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护工程师</t>
   </si>
   <si>
     <t>treasurer,CFO(Chief Financial Officer）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务主管</t>
   </si>
   <si>
     <t>warehouse manager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓储部经理</t>
   </si>
   <si>
     <t>wholesale distributing manager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采买员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首席执行官</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副总监</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商务代表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主任，总干事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董事长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经济师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外销部经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理委员会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购部经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售部经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售代表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级行政官</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维护工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务主管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓储部经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>批发部经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>industrial estate(trading
-estate,industrial park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1329,20 +1006,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1352,22 +1365,264 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1375,7 +1630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1388,11 +1643,63 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1675,22 +1982,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="32.75" customWidth="1"/>
-    <col min="2" max="2" width="29.125" customWidth="1"/>
+    <col min="2" max="2" width="29.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1698,140 +2005,140 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" ht="43.2" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="27">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="17" ht="20.25" customHeight="1" spans="1:2">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>35</v>
@@ -1842,204 +2149,204 @@
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="27">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" ht="28.8" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="40.5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" ht="57.6" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>86</v>
@@ -2050,180 +2357,180 @@
         <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="27">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" ht="28.8" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>320</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>132</v>
@@ -2231,15 +2538,15 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>136</v>
@@ -2247,199 +2554,199 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="27">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" ht="28.8" spans="1:2">
       <c r="A88" s="2" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>186</v>
@@ -2447,207 +2754,207 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="27">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" ht="28.8" spans="1:2">
       <c r="A96" s="4" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>238</v>
@@ -2655,186 +2962,187 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="53.625" customWidth="1"/>
+    <col min="1" max="1" width="53.6296296296296" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>278</v>
@@ -2842,165 +3150,165 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>318</v>
@@ -3008,10 +3316,10 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3019,22 +3327,25 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A23:B23"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>